--- a/console/Networking/diskChExcel/diskSnapshotMixins/components/shareSnapshot/list.xlsx
+++ b/console/Networking/diskChExcel/diskSnapshotMixins/components/shareSnapshot/list.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.18\Console_190117-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinyonghua\Desktop\translation_review\diskChExcel\diskSnapshotMixins\components\shareSnapshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -374,9 +374,6 @@
     </r>
   </si>
   <si>
-    <t>No Shared Snapshot Data</t>
-  </si>
-  <si>
     <t>list_i18nKey_17</t>
   </si>
   <si>
@@ -392,13 +389,17 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>No Sharing Snapshot Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -425,6 +426,12 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -446,9 +453,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -793,18 +803,18 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="26.8984375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.875" style="1"/>
-    <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="26.875" style="1"/>
+    <col min="1" max="1" width="26.8984375" style="1"/>
+    <col min="2" max="2" width="34.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.69921875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="26.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -826,7 +836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -848,7 +858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -859,7 +869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -870,7 +880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -881,7 +891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -892,7 +902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -903,7 +913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -914,7 +924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -925,7 +935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -936,7 +946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -947,7 +957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -958,7 +968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -969,26 +979,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
